--- a/tour_de_france.xlsx
+++ b/tour_de_france.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danin\Desktop\Progetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15EE260-6FA3-4B9F-96BA-01BBE7EFFF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FEAD46-C6CB-4F1A-BAC3-406E32932487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original_data" sheetId="1" r:id="rId1"/>
@@ -938,10 +938,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -3402,8 +3402,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24463529379622767"/>
-          <c:y val="3.9015856123199431E-2"/>
+          <c:x val="0.24788005740215152"/>
+          <c:y val="6.6469185049666438E-2"/>
           <c:w val="0.73690625588779357"/>
           <c:h val="0.92091258822126665"/>
         </c:manualLayout>
@@ -4365,6 +4365,20 @@
                     <a:lumMod val="50000"/>
                     <a:lumOff val="50000"/>
                   </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
                 <a:prstDash val="dash"/>
               </a:ln>
@@ -8449,20 +8463,20 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>35676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>44451</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="Group 15">
+        <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A8442F-B6D9-B35B-2C28-D989BB3A57B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5D6BEA-28DE-78B9-9DD2-7CBA955AE9F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8470,10 +8484,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8553450" y="4508500"/>
-          <a:ext cx="4214283" cy="3476625"/>
-          <a:chOff x="10779125" y="2438400"/>
-          <a:chExt cx="4191000" cy="3495675"/>
+          <a:off x="8553450" y="4448926"/>
+          <a:ext cx="4214283" cy="3536200"/>
+          <a:chOff x="8553450" y="4448871"/>
+          <a:chExt cx="4214283" cy="3536254"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -8489,8 +8503,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10779125" y="2438400"/>
-            <a:ext cx="4191000" cy="3495675"/>
+            <a:off x="8553450" y="4448871"/>
+            <a:ext cx="4214283" cy="3536254"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -8535,6 +8549,18 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
                 <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>FRENCH</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
@@ -8545,7 +8571,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>TOTAL WINNERS BY COUNTRY</a:t>
+              <a:t> CYCLISTS HAVE WON THE MOST TOURS</a:t>
             </a:r>
             <a:endParaRPr lang="nl-NL" sz="1400">
               <a:solidFill>
@@ -8645,8 +8671,8 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="10934701" y="2895599"/>
-          <a:ext cx="3886199" cy="2790826"/>
+          <a:off x="8629553" y="4963537"/>
+          <a:ext cx="4062077" cy="2784813"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8662,20 +8688,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>88899</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="Group 17">
+        <xdr:cNvPr id="7" name="Group 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28ABDD22-40B5-D06F-5D85-0D4C2338619F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148DE136-CF73-3C1C-9708-B211A2E33C12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8683,10 +8709,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="8203141"/>
-          <a:ext cx="13203767" cy="3485092"/>
-          <a:chOff x="50799" y="7699374"/>
-          <a:chExt cx="12560301" cy="3800475"/>
+          <a:off x="0" y="8149166"/>
+          <a:ext cx="13203767" cy="3478742"/>
+          <a:chOff x="0" y="8145991"/>
+          <a:chExt cx="13203767" cy="3481917"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -8702,8 +8728,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="50799" y="7699374"/>
-            <a:ext cx="12560301" cy="3800475"/>
+            <a:off x="0" y="8145991"/>
+            <a:ext cx="13203767" cy="3481917"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -8742,8 +8768,38 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>AVERAGE SPEED (KM/H) ACROSS YEARS</a:t>
+              <a:t>WINNER'S </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>AVERAGE SPEED </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(KM/H) HAS INCREASED OVER TIME</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr rtl="0"/>
             <a:endParaRPr lang="nl-NL" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -8806,8 +8862,8 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="400049" y="8250738"/>
-          <a:ext cx="11855451" cy="3071314"/>
+          <a:off x="370480" y="8638900"/>
+          <a:ext cx="12462807" cy="2822791"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11665,6 +11721,278 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B411F167-10AA-4264-A267-5F85C9C0A246}" name="Drop outs" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" fieldListSortAscending="1">
+  <location ref="K29:L31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="97">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="97">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="85"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Drop outs in %" fld="7" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="10" type="dateBetween" evalOrder="-1" id="90" name="Start Date">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="38718"/>
+            <customFilter operator="lessThanOrEqual" val="39082"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{996291FC-A60D-4FD2-AF16-46A7ABE48302}" name="Stages" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" fieldListSortAscending="1">
   <location ref="H29:I31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -11931,7 +12259,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5379DB21-8C2D-4EC3-9386-71CEB1399539}" name="Distance" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" fieldListSortAscending="1">
   <location ref="E29:F31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -12198,7 +12526,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DF57F1A-E34C-477C-B350-69C4081801E0}" name="Avg speed" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" fieldListSortAscending="1">
   <location ref="A3:B99" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -12750,7 +13078,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69358DB8-1F20-42C0-AC79-AC03A18CCA9B}" name="Days" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" fieldListSortAscending="1">
   <location ref="N29:O31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -12987,278 +13315,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Days" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="10" type="dateBetween" evalOrder="-1" id="90" name="Start Date">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="38718"/>
-            <customFilter operator="lessThanOrEqual" val="39082"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B411F167-10AA-4264-A267-5F85C9C0A246}" name="Drop outs" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" fieldListSortAscending="1">
-  <location ref="K29:L31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="97">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="97">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="85"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Drop outs in %" fld="7" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
     <format dxfId="1">
@@ -13706,7 +13762,7 @@
 
 <file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
 <timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <timeline name="Start Date" xr10:uid="{83E92DFD-88A3-441E-9610-74C9D233346B}" cache="NativeTimeline_Start_Date" caption="Years" showTimeLevel="0" level="0" selectionLevel="0" scrollPosition="1921-09-06T00:00:00" style="TimeSlicerStyleLight6"/>
+  <timeline name="Start Date" xr10:uid="{83E92DFD-88A3-441E-9610-74C9D233346B}" cache="NativeTimeline_Start_Date" caption="Years" showTimeLevel="0" level="0" selectionLevel="0" scrollPosition="2000-09-06T00:00:00" style="TimeSlicerStyleLight6"/>
 </timelines>
 </file>
 
@@ -19776,7 +19832,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26620,7 +26676,7 @@
   <dimension ref="A8:K33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
